--- a/ddSpaceStormCoord.xlsx
+++ b/ddSpaceStormCoord.xlsx
@@ -61,8 +61,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70,7 +70,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="2">
@@ -78,7 +78,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7320508075688528</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="3">
@@ -86,7 +86,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.349108217435536</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="4">
@@ -94,7 +94,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.372205144734774</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="5">
@@ -102,7 +102,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.715366412752234</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="6">
@@ -110,7 +110,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14.068831422340754</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="7">
@@ -118,7 +118,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20.659859074180392</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="8">
@@ -126,7 +126,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>26.194850484929308</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="9">
@@ -134,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>31.260846661288188</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="10">
@@ -142,7 +142,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>40.012552378332444</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="11">
@@ -150,7 +150,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>54.56221292771457</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="12">
@@ -158,7 +158,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>62.718488249755424</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="13">
@@ -166,7 +166,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>62.54063392099363</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="14">
@@ -174,7 +174,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>75.05778946607577</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="15">
@@ -182,7 +182,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>81.06354134201587</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="16">
@@ -190,7 +190,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>97.37555251216868</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="17">
@@ -198,7 +198,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>106.77937695808592</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="18">
@@ -206,7 +206,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>108.30701003415699</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="19">
@@ -214,7 +214,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>114.42634739208289</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="20">
@@ -222,7 +222,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>119.22649856264194</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="21">
@@ -230,7 +230,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>131.06470997050332</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="22">
@@ -238,7 +238,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>131.34967152725233</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="23">
@@ -246,7 +246,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>139.07606969506932</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="24">
@@ -254,7 +254,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>154.14750732258798</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="25">
@@ -262,7 +262,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>136.75412194148058</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="26">
@@ -270,7 +270,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>162.26798554976125</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="27">
@@ -278,7 +278,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>158.23206252378347</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="28">
@@ -286,7 +286,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>155.3914751614233</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="29">
@@ -294,7 +294,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>162.8515028673111</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="30">
@@ -302,7 +302,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>156.2979766110348</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="31">
@@ -310,7 +310,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>164.02591704644448</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="32">
@@ -318,7 +318,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>166.0081589441075</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="33">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>159.36051776072264</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="34">
@@ -334,7 +334,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>173.37080131097616</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="35">
@@ -342,7 +342,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>166.00670926273162</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="36">
@@ -350,7 +350,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>162.76190820060845</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="37">
@@ -358,7 +358,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>180.5064192353852</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="38">
@@ -366,7 +366,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>168.24404688002377</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="39">
@@ -374,7 +374,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>182.4069688488986</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="40">
@@ -382,7 +382,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>168.00493438258323</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="41">
@@ -390,7 +390,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>159.8990398260795</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="42">
@@ -398,7 +398,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>169.31421857015107</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="43">
@@ -406,7 +406,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>170.89227884105622</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="44">
@@ -414,7 +414,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>177.43523822572956</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="45">
@@ -422,7 +422,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>169.5425166217778</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="46">
@@ -430,7 +430,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>169.77047011314568</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="47">
@@ -438,7 +438,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>170.1830059670893</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="48">
@@ -446,7 +446,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>173.63743091880696</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="49">
@@ -454,7 +454,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>168.2075191912988</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="50">
@@ -462,7 +462,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>172.74187421853762</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="51">
@@ -470,7 +470,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>178.11069345990245</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="52">
@@ -478,7 +478,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>174.14306214828</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="53">
@@ -486,7 +486,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>178.54320959979898</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="54">
@@ -494,7 +494,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>180.0522786913907</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="55">
@@ -502,7 +502,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>175.83361049098392</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="56">
@@ -510,7 +510,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>165.61447827307677</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="57">
@@ -518,7 +518,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>172.0968492695927</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="58">
@@ -526,7 +526,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>176.77929652944155</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="59">
@@ -534,7 +534,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>172.95243304852664</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="60">
@@ -542,7 +542,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>175.08527240374372</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="61">
@@ -550,7 +550,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>178.17694453174335</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="62">
@@ -558,7 +558,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>175.71376075280514</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="63">
@@ -566,7 +566,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>181.30095277700613</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="64">
@@ -574,7 +574,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>179.70463979778694</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="65">
@@ -582,7 +582,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>184.61252706280277</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="66">
@@ -590,7 +590,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>177.8853609044122</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="67">
@@ -598,7 +598,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>169.1063482550931</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="68">
@@ -606,7 +606,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>186.17886237910116</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="69">
@@ -614,7 +614,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>186.88914454639698</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="70">
@@ -622,7 +622,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>183.50338957281534</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="71">
@@ -630,7 +630,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>186.77467311786668</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="72">
@@ -638,7 +638,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>183.7353704733864</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="73">
@@ -646,7 +646,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>196.3703897899461</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="74">
@@ -654,7 +654,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>189.74776536724283</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="75">
@@ -662,7 +662,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>193.4360620932325</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="76">
@@ -670,7 +670,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>195.03647834322567</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="77">
@@ -678,7 +678,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>194.4592385006265</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="78">
@@ -686,7 +686,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>199.44481103318756</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="79">
@@ -694,7 +694,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>190.72190831496312</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="80">
@@ -702,7 +702,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>214.9926291445537</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="81">
@@ -710,7 +710,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>233.74807063239817</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="82">
@@ -718,7 +718,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>204.40105818042386</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="83">
@@ -726,7 +726,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>219.55595504480436</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="84">
@@ -734,7 +734,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>205.55546177947096</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="85">
@@ -742,7 +742,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>216.54055258152758</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="86">
@@ -750,7 +750,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>228.7519090748225</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="87">
@@ -758,7 +758,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>229.69883737062597</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="88">
@@ -766,7 +766,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>238.33698261097177</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="89">
@@ -774,7 +774,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>253.72895422937103</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="90">
@@ -782,7 +782,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>241.7379766220299</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="91">
@@ -790,7 +790,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>255.0585690822692</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="92">
@@ -798,7 +798,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>244.09463718160623</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="93">
@@ -806,7 +806,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>238.35584718320357</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="94">
@@ -814,7 +814,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>273.71745105274965</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="95">
@@ -822,7 +822,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>262.0806006895984</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="96">
@@ -830,7 +830,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>268.24625007565805</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="97">
@@ -838,7 +838,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>275.1581177249096</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="98">
@@ -846,7 +846,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>260.1236866260376</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="99">
@@ -854,7 +854,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>279.6882870090957</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
     <row r="100">
@@ -862,7 +862,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>276.2037042974427</v>
+        <v>8660.25403784423</v>
       </c>
     </row>
   </sheetData>
